--- a/Tests/Maize/Observations/SoilWater.xlsx
+++ b/Tests/Maize/Observations/SoilWater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="22980" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="22980" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="soilMoisturePerc" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -145,7 +145,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4187,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="I58" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:V129"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4270,67 +4270,67 @@
         <v>26</v>
       </c>
       <c r="F3" t="str">
-        <f>"Soil.SoilWater.SW0:7("&amp;F1&amp;")"</f>
-        <v>Soil.SoilWater.SW0:7(1)</v>
+        <f>"Soil.SoilWater.SW("&amp;F1&amp;")"</f>
+        <v>Soil.SoilWater.SW(1)</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:M3" si="0">"Soil.SoilWater.SW0:7("&amp;G1&amp;")"</f>
-        <v>Soil.SoilWater.SW0:7(2)</v>
+        <f t="shared" ref="G3:M3" si="0">"Soil.SoilWater.SW("&amp;G1&amp;")"</f>
+        <v>Soil.SoilWater.SW(2)</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(3)</v>
+        <v>Soil.SoilWater.SW(3)</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(4)</v>
+        <v>Soil.SoilWater.SW(4)</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(5)</v>
+        <v>Soil.SoilWater.SW(5)</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(6)</v>
+        <v>Soil.SoilWater.SW(6)</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(7)</v>
+        <v>Soil.SoilWater.SW(7)</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
-        <v>Soil.SoilWater.SW0:7(8)</v>
+        <v>Soil.SoilWater.SW(8)</v>
       </c>
       <c r="N3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;F1&amp;")"</f>
+        <f t="shared" ref="N3:U3" si="1">"Soil.SoilWater.SWmm("&amp;F1&amp;")"</f>
         <v>Soil.SoilWater.SWmm(1)</v>
       </c>
       <c r="O3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;G1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(2)</v>
       </c>
       <c r="P3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;H1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(3)</v>
       </c>
       <c r="Q3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;I1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(4)</v>
       </c>
       <c r="R3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;J1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(5)</v>
       </c>
       <c r="S3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;K1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(6)</v>
       </c>
       <c r="T3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;L1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(7)</v>
       </c>
       <c r="U3" t="str">
-        <f>"Soil.SoilWater.SWmm("&amp;M1&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>Soil.SoilWater.SWmm(8)</v>
       </c>
       <c r="V3" t="s">
@@ -4391,31 +4391,31 @@
         <v>37.549999999999997</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:U4" si="1">G4*200</f>
+        <f t="shared" ref="O4:U4" si="2">G4*200</f>
         <v>46.4</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.949999999999996</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.799999999999997</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.95</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.150000000000006</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.05</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.25</v>
       </c>
       <c r="V4">
@@ -4467,39 +4467,39 @@
         <v>0.22625000000000001</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="2">F5*200</f>
+        <f t="shared" ref="N5:N68" si="3">F5*200</f>
         <v>33.6</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O68" si="3">G5*200</f>
+        <f t="shared" ref="O5:O68" si="4">G5*200</f>
         <v>46.4</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P68" si="4">H5*200</f>
+        <f t="shared" ref="P5:P68" si="5">H5*200</f>
         <v>39.949999999999996</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q68" si="5">I5*200</f>
+        <f t="shared" ref="Q5:Q68" si="6">I5*200</f>
         <v>39.799999999999997</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R68" si="6">J5*200</f>
+        <f t="shared" ref="R5:R68" si="7">J5*200</f>
         <v>44.95</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="7">K5*200</f>
+        <f t="shared" ref="S5:S68" si="8">K5*200</f>
         <v>48.150000000000006</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T68" si="8">L5*200</f>
+        <f t="shared" ref="T5:T68" si="9">L5*200</f>
         <v>43.05</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U68" si="9">M5*200</f>
+        <f t="shared" ref="U5:U68" si="10">M5*200</f>
         <v>45.25</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V68" si="10">SUM(N5:U5)</f>
+        <f t="shared" ref="V5:V68" si="11">SUM(N5:U5)</f>
         <v>341.15</v>
       </c>
     </row>
@@ -4547,39 +4547,39 @@
         <v>0.22774999999999998</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.174999999999997</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.400000000000006</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.699999999999996</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.5</v>
       </c>
       <c r="S6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.45</v>
       </c>
       <c r="T6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.1</v>
       </c>
       <c r="U6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.55</v>
       </c>
       <c r="V6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>352.27500000000003</v>
       </c>
     </row>
@@ -4627,39 +4627,39 @@
         <v>0.22625000000000001</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.050000000000004</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.650000000000006</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.300000000000004</v>
       </c>
       <c r="S7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.149999999999991</v>
       </c>
       <c r="T7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.3</v>
       </c>
       <c r="U7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.25</v>
       </c>
       <c r="V7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>357.00000000000006</v>
       </c>
     </row>
@@ -4707,39 +4707,39 @@
         <v>0.214</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.65</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.9</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42.150000000000006</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.599999999999994</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.95</v>
       </c>
       <c r="S8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.9</v>
       </c>
       <c r="T8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.05</v>
       </c>
       <c r="U8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.8</v>
       </c>
       <c r="V8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>348</v>
       </c>
     </row>
@@ -4787,39 +4787,39 @@
         <v>0.21475000000000002</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.424999999999997</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.35</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46.35</v>
       </c>
       <c r="S9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.199999999999996</v>
       </c>
       <c r="T9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.7</v>
       </c>
       <c r="U9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.95</v>
       </c>
       <c r="V9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>334.27499999999998</v>
       </c>
     </row>
@@ -4867,39 +4867,39 @@
         <v>0.2155</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.875</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.200000000000003</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.3</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.699999999999996</v>
       </c>
       <c r="S10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49.349999999999994</v>
       </c>
       <c r="T10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.650000000000006</v>
       </c>
       <c r="U10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.1</v>
       </c>
       <c r="V10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>326.375</v>
       </c>
     </row>
@@ -4947,39 +4947,39 @@
         <v>0.21350000000000002</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.25</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.050000000000004</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.4</v>
       </c>
       <c r="S11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.449999999999996</v>
       </c>
       <c r="T11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.150000000000006</v>
       </c>
       <c r="U11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.7</v>
       </c>
       <c r="V11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>309</v>
       </c>
     </row>
@@ -5027,39 +5027,39 @@
         <v>0.217</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.45</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.4</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.25</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.299999999999997</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.25</v>
       </c>
       <c r="S12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48.599999999999994</v>
       </c>
       <c r="T12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.45</v>
       </c>
       <c r="U12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.4</v>
       </c>
       <c r="V12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300.09999999999997</v>
       </c>
     </row>
@@ -5107,39 +5107,39 @@
         <v>0.21124999999999999</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.699999999999998</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.950000000000003</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.6</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43.900000000000006</v>
       </c>
       <c r="S13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.9</v>
       </c>
       <c r="T13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.9</v>
       </c>
       <c r="U13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.25</v>
       </c>
       <c r="V13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>287.20000000000005</v>
       </c>
     </row>
@@ -5187,39 +5187,39 @@
         <v>0.21375</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.675000000000001</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.65</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.849999999999998</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.799999999999997</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.800000000000004</v>
       </c>
       <c r="S14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.7</v>
       </c>
       <c r="T14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="U14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.75</v>
       </c>
       <c r="V14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>281.22500000000002</v>
       </c>
     </row>
@@ -5267,39 +5267,39 @@
         <v>0.21075000000000002</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.85</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.65</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.650000000000002</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41.65</v>
       </c>
       <c r="S15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.099999999999994</v>
       </c>
       <c r="T15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.5</v>
       </c>
       <c r="U15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.150000000000006</v>
       </c>
       <c r="V15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>275.55</v>
       </c>
     </row>
@@ -5347,39 +5347,39 @@
         <v>0.21100000000000002</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.274999999999999</v>
       </c>
       <c r="O16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.65</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.599999999999998</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.6</v>
       </c>
       <c r="R16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.85</v>
       </c>
       <c r="S16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46.8</v>
       </c>
       <c r="T16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.25</v>
       </c>
       <c r="U16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>274.22499999999997</v>
       </c>
     </row>
@@ -5427,39 +5427,39 @@
         <v>0.21</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.65</v>
       </c>
       <c r="P17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.4</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
       <c r="R17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.700000000000003</v>
       </c>
       <c r="S17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.999999999999993</v>
       </c>
       <c r="T17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.4</v>
       </c>
       <c r="U17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="V17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>269.14999999999998</v>
       </c>
     </row>
@@ -5507,39 +5507,39 @@
         <v>0.20850000000000002</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.55</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.500000000000004</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.099999999999998</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.450000000000006</v>
       </c>
       <c r="R18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="S18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45.350000000000009</v>
       </c>
       <c r="T18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.1</v>
       </c>
       <c r="U18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.7</v>
       </c>
       <c r="V18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>264.75000000000006</v>
       </c>
     </row>
@@ -5587,39 +5587,39 @@
         <v>0.20700000000000002</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.025</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.399999999999995</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.200000000000003</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.549999999999997</v>
       </c>
       <c r="R19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.099999999999994</v>
       </c>
       <c r="S19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44.400000000000006</v>
       </c>
       <c r="T19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.4</v>
       </c>
       <c r="U19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.400000000000006</v>
       </c>
       <c r="V19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>262.47500000000002</v>
       </c>
     </row>
@@ -5667,39 +5667,39 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.85</v>
       </c>
       <c r="O20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.35</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.650000000000002</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.850000000000005</v>
       </c>
       <c r="R20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.799999999999997</v>
       </c>
       <c r="S20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.75</v>
       </c>
       <c r="T20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.6</v>
       </c>
       <c r="U20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.200000000000003</v>
       </c>
       <c r="V20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>255.05</v>
       </c>
     </row>
@@ -5747,39 +5747,39 @@
         <v>0.20225000000000001</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.775</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
-        <v>27.750000000000004</v>
-      </c>
-      <c r="P21">
         <f t="shared" si="4"/>
         <v>27.750000000000004</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>27.750000000000004</v>
+      </c>
       <c r="Q21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.049999999999997</v>
       </c>
       <c r="R21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.450000000000003</v>
       </c>
       <c r="S21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.95</v>
       </c>
       <c r="T21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="U21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.450000000000003</v>
       </c>
       <c r="V21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>256.17500000000001</v>
       </c>
     </row>
@@ -5827,39 +5827,39 @@
         <v>0.20199999999999999</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.35</v>
       </c>
       <c r="P22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.000000000000004</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.299999999999997</v>
       </c>
       <c r="R22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.950000000000003</v>
       </c>
       <c r="S22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.449999999999996</v>
       </c>
       <c r="T22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.1</v>
       </c>
       <c r="U22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.4</v>
       </c>
       <c r="V22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>257.75</v>
       </c>
     </row>
@@ -5907,39 +5907,39 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.05</v>
       </c>
       <c r="O23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.9</v>
       </c>
       <c r="P23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.65</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.600000000000005</v>
       </c>
       <c r="R23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.65</v>
       </c>
       <c r="S23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.65</v>
       </c>
       <c r="T23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.15</v>
       </c>
       <c r="U23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40.200000000000003</v>
       </c>
       <c r="V23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>256.85000000000002</v>
       </c>
     </row>
@@ -5987,39 +5987,39 @@
         <v>0.19899999999999998</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.975</v>
       </c>
       <c r="O24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.300000000000004</v>
       </c>
       <c r="P24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.049999999999997</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.849999999999998</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.450000000000003</v>
       </c>
       <c r="S24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42.7</v>
       </c>
       <c r="T24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.25</v>
       </c>
       <c r="U24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39.799999999999997</v>
       </c>
       <c r="V24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>258.375</v>
       </c>
     </row>
@@ -6070,39 +6070,39 @@
         <v>0.19225</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.449999999999996</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.7</v>
       </c>
       <c r="P25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.049999999999997</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.650000000000006</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.150000000000006</v>
       </c>
       <c r="S25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.6</v>
       </c>
       <c r="T25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.6</v>
       </c>
       <c r="U25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.450000000000003</v>
       </c>
       <c r="V25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>340.65000000000003</v>
       </c>
     </row>
@@ -6150,39 +6150,39 @@
         <v>0.19225</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.7</v>
       </c>
       <c r="P26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.049999999999997</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.650000000000006</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.150000000000006</v>
       </c>
       <c r="S26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.6</v>
       </c>
       <c r="T26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.6</v>
       </c>
       <c r="U26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.450000000000003</v>
       </c>
       <c r="V26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>332.2</v>
       </c>
     </row>
@@ -6230,39 +6230,39 @@
         <v>0.22450000000000001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.8</v>
       </c>
       <c r="O27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.249999999999993</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.75</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.5</v>
       </c>
       <c r="R27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="S27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.65</v>
       </c>
       <c r="T27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.65</v>
       </c>
       <c r="U27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.9</v>
       </c>
       <c r="V27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>349.49999999999994</v>
       </c>
     </row>
@@ -6310,39 +6310,39 @@
         <v>0.22450000000000003</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.45</v>
       </c>
       <c r="O28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.1</v>
       </c>
       <c r="P28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.25</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.15</v>
       </c>
       <c r="R28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.45</v>
       </c>
       <c r="S28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.6</v>
       </c>
       <c r="T28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.900000000000006</v>
       </c>
       <c r="U28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.900000000000006</v>
       </c>
       <c r="V28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>354.80000000000007</v>
       </c>
     </row>
@@ -6390,39 +6390,39 @@
         <v>0.22875000000000001</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.200000000000003</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.35</v>
       </c>
       <c r="P29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.049999999999997</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.6</v>
       </c>
       <c r="R29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.6</v>
       </c>
       <c r="S29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.75</v>
       </c>
       <c r="T29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.7</v>
       </c>
       <c r="U29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.75</v>
       </c>
       <c r="V29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>347</v>
       </c>
     </row>
@@ -6470,39 +6470,39 @@
         <v>0.22925000000000001</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.824999999999999</v>
       </c>
       <c r="O30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.150000000000006</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.349999999999994</v>
       </c>
       <c r="R30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.35</v>
       </c>
       <c r="S30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.8</v>
       </c>
       <c r="T30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.899999999999991</v>
       </c>
       <c r="U30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.85</v>
       </c>
       <c r="V30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>330.42500000000001</v>
       </c>
     </row>
@@ -6550,39 +6550,39 @@
         <v>0.22900000000000001</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.449999999999996</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.5</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.9</v>
       </c>
       <c r="R31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.65</v>
       </c>
       <c r="T31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.3</v>
       </c>
       <c r="U31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.800000000000004</v>
       </c>
       <c r="V31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>321.2</v>
       </c>
     </row>
@@ -6630,39 +6630,39 @@
         <v>0.21875</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.024999999999999</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.35</v>
       </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32.199999999999996</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.650000000000006</v>
       </c>
       <c r="R32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
       <c r="S32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41.2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.2</v>
       </c>
       <c r="U32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.75</v>
       </c>
       <c r="V32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>299.875</v>
       </c>
     </row>
@@ -6710,39 +6710,39 @@
         <v>0.22475000000000001</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.524999999999999</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.95</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.900000000000002</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38.349999999999994</v>
       </c>
       <c r="R33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="S33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="T33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.25</v>
       </c>
       <c r="U33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.95</v>
       </c>
       <c r="V33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>288.92500000000001</v>
       </c>
     </row>
@@ -6790,39 +6790,39 @@
         <v>0.21924999999999997</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.825000000000001</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.55</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.9</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.5</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.699999999999996</v>
       </c>
       <c r="S34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.75</v>
       </c>
       <c r="T34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.1</v>
       </c>
       <c r="U34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.849999999999994</v>
       </c>
       <c r="V34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>274.17499999999995</v>
       </c>
     </row>
@@ -6870,39 +6870,39 @@
         <v>0.21574999999999997</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.675000000000001</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="P35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.349999999999998</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.4</v>
       </c>
       <c r="R35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.799999999999997</v>
       </c>
       <c r="T35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.95</v>
       </c>
       <c r="U35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.149999999999991</v>
       </c>
       <c r="V35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>266.52499999999998</v>
       </c>
     </row>
@@ -6950,39 +6950,39 @@
         <v>0.21975</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.150000000000002</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.65</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32.15</v>
       </c>
       <c r="R36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44.099999999999994</v>
       </c>
       <c r="S36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.150000000000006</v>
       </c>
       <c r="T36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.2</v>
       </c>
       <c r="U36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.95</v>
       </c>
       <c r="V36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260.75</v>
       </c>
     </row>
@@ -7030,39 +7030,39 @@
         <v>0.21950000000000003</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.775</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.049999999999997</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.15</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.4</v>
       </c>
       <c r="R37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43.05</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37.700000000000003</v>
       </c>
       <c r="T37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.400000000000006</v>
       </c>
       <c r="U37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.900000000000006</v>
       </c>
       <c r="V37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>259.42500000000001</v>
       </c>
     </row>
@@ -7110,39 +7110,39 @@
         <v>0.2155</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.4</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="P38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.6</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.8</v>
       </c>
       <c r="R38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.35</v>
       </c>
       <c r="S38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.650000000000006</v>
       </c>
       <c r="T38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.4</v>
       </c>
       <c r="U38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.1</v>
       </c>
       <c r="V38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>254.3</v>
       </c>
     </row>
@@ -7190,39 +7190,39 @@
         <v>0.22099999999999997</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.9</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.900000000000002</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.25</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.099999999999998</v>
       </c>
       <c r="R39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41.349999999999994</v>
       </c>
       <c r="S39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.9</v>
       </c>
       <c r="T39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.8</v>
       </c>
       <c r="U39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.199999999999996</v>
       </c>
       <c r="V39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>251.39999999999998</v>
       </c>
     </row>
@@ -7270,39 +7270,39 @@
         <v>0.217</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.700000000000001</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="P40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.65</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.45</v>
       </c>
       <c r="R40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.65</v>
       </c>
       <c r="S40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.799999999999997</v>
       </c>
       <c r="T40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.4</v>
       </c>
       <c r="V40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>247.85</v>
       </c>
     </row>
@@ -7350,39 +7350,39 @@
         <v>0.21</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.625</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.4</v>
       </c>
       <c r="P41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.9</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.95</v>
       </c>
       <c r="R41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.549999999999997</v>
       </c>
       <c r="S41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.65</v>
       </c>
       <c r="T41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39.75</v>
       </c>
       <c r="U41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="V41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>240.82499999999999</v>
       </c>
     </row>
@@ -7430,39 +7430,39 @@
         <v>0.20825000000000002</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.55</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.900000000000002</v>
       </c>
       <c r="P42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.25</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.049999999999997</v>
       </c>
       <c r="R42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.700000000000003</v>
       </c>
       <c r="S42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.5</v>
       </c>
       <c r="T42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.200000000000003</v>
       </c>
       <c r="U42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.650000000000006</v>
       </c>
       <c r="V42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>241.79999999999998</v>
       </c>
     </row>
@@ -7510,39 +7510,39 @@
         <v>0.21149999999999999</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.875</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.25</v>
       </c>
       <c r="P43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.6</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.65</v>
       </c>
       <c r="R43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.950000000000003</v>
       </c>
       <c r="S43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.700000000000003</v>
       </c>
       <c r="T43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.550000000000004</v>
       </c>
       <c r="U43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.3</v>
       </c>
       <c r="V43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>244.875</v>
       </c>
     </row>
@@ -7590,39 +7590,39 @@
         <v>0.20800000000000002</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.625</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.3</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.750000000000004</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.65</v>
       </c>
       <c r="R44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.950000000000003</v>
       </c>
       <c r="S44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.35</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.200000000000003</v>
       </c>
       <c r="U44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.6</v>
       </c>
       <c r="V44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>243.42499999999998</v>
       </c>
     </row>
@@ -7670,39 +7670,39 @@
         <v>0.20600000000000002</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.55</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.250000000000004</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.849999999999998</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.55</v>
       </c>
       <c r="R45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.200000000000003</v>
       </c>
       <c r="S45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.950000000000003</v>
       </c>
       <c r="T45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.099999999999994</v>
       </c>
       <c r="U45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.2</v>
       </c>
       <c r="V45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245.65000000000003</v>
       </c>
     </row>
@@ -7753,39 +7753,39 @@
         <v>0.25274999999999997</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.1</v>
       </c>
       <c r="P46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.25</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.099999999999994</v>
       </c>
       <c r="R46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.799999999999997</v>
       </c>
       <c r="S46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.299999999999997</v>
       </c>
       <c r="T46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.35</v>
       </c>
       <c r="U46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.55</v>
       </c>
       <c r="V46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>335.95000000000005</v>
       </c>
     </row>
@@ -7833,39 +7833,39 @@
         <v>0.25274999999999997</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.85</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.1</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.25</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.099999999999994</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.799999999999997</v>
       </c>
       <c r="S47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.299999999999997</v>
       </c>
       <c r="T47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.35</v>
       </c>
       <c r="U47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.55</v>
       </c>
       <c r="V47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>324.30000000000007</v>
       </c>
     </row>
@@ -7913,39 +7913,39 @@
         <v>0.2535</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.325000000000003</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.3</v>
       </c>
       <c r="P48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.300000000000004</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38.799999999999997</v>
       </c>
       <c r="R48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.4</v>
       </c>
       <c r="S48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.500000000000007</v>
       </c>
       <c r="T48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.35</v>
       </c>
       <c r="U48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.7</v>
       </c>
       <c r="V48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>333.67500000000001</v>
       </c>
     </row>
@@ -7993,39 +7993,39 @@
         <v>0.25074999999999997</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.775000000000006</v>
       </c>
       <c r="O49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.849999999999994</v>
       </c>
       <c r="P49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.9</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.9</v>
       </c>
       <c r="R49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.700000000000003</v>
       </c>
       <c r="S49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.75</v>
       </c>
       <c r="T49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.55</v>
       </c>
       <c r="U49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.149999999999991</v>
       </c>
       <c r="V49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>341.57499999999999</v>
       </c>
     </row>
@@ -8073,39 +8073,39 @@
         <v>0.25275000000000003</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.424999999999997</v>
       </c>
       <c r="O50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.099999999999994</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.300000000000004</v>
       </c>
       <c r="R50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="S50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.700000000000003</v>
       </c>
       <c r="T50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.95</v>
       </c>
       <c r="U50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.550000000000004</v>
       </c>
       <c r="V50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>335.22500000000002</v>
       </c>
     </row>
@@ -8153,39 +8153,39 @@
         <v>0.25224999999999997</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.424999999999997</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.85</v>
       </c>
       <c r="P51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40.25</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.35</v>
       </c>
       <c r="R51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.200000000000003</v>
       </c>
       <c r="S51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.099999999999994</v>
       </c>
       <c r="T51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.75</v>
       </c>
       <c r="U51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.449999999999996</v>
       </c>
       <c r="V51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>320.37499999999994</v>
       </c>
     </row>
@@ -8233,39 +8233,39 @@
         <v>0.2525</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.15</v>
       </c>
       <c r="O52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.549999999999997</v>
       </c>
       <c r="P52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.15</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.599999999999994</v>
       </c>
       <c r="R52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.75</v>
       </c>
       <c r="S52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39.4</v>
       </c>
       <c r="T52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.849999999999994</v>
       </c>
       <c r="U52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.5</v>
       </c>
       <c r="V52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>308.95</v>
       </c>
     </row>
@@ -8313,39 +8313,39 @@
         <v>0.25124999999999997</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.7</v>
       </c>
       <c r="O53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.9</v>
       </c>
       <c r="P53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34.900000000000006</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38.749999999999993</v>
       </c>
       <c r="R53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.700000000000003</v>
       </c>
       <c r="S53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.5</v>
       </c>
       <c r="T53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.35</v>
       </c>
       <c r="U53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.249999999999993</v>
       </c>
       <c r="V53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>292.04999999999995</v>
       </c>
     </row>
@@ -8393,39 +8393,39 @@
         <v>0.252</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.275000000000002</v>
       </c>
       <c r="O54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.800000000000004</v>
       </c>
       <c r="P54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.15</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.799999999999997</v>
       </c>
       <c r="R54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.15</v>
       </c>
       <c r="S54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.449999999999996</v>
       </c>
       <c r="T54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.85</v>
       </c>
       <c r="U54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.4</v>
       </c>
       <c r="V54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>280.87499999999994</v>
       </c>
     </row>
@@ -8473,39 +8473,39 @@
         <v>0.24950000000000003</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="O55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.750000000000007</v>
       </c>
       <c r="P55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28.65</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.050000000000004</v>
       </c>
       <c r="R55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.45</v>
       </c>
       <c r="S55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.950000000000003</v>
       </c>
       <c r="T55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.050000000000004</v>
       </c>
       <c r="U55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.900000000000006</v>
       </c>
       <c r="V55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>267.80000000000007</v>
       </c>
     </row>
@@ -8553,39 +8553,39 @@
         <v>0.2505</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.925000000000001</v>
       </c>
       <c r="O56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.9</v>
       </c>
       <c r="P56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.299999999999997</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.750000000000007</v>
       </c>
       <c r="R56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29.450000000000003</v>
       </c>
       <c r="S56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36.6</v>
       </c>
       <c r="T56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47.25</v>
       </c>
       <c r="U56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50.1</v>
       </c>
       <c r="V56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>259.27500000000003</v>
       </c>
     </row>
@@ -8633,39 +8633,39 @@
         <v>0.24825</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.024999999999999</v>
       </c>
       <c r="O57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.65</v>
       </c>
       <c r="P57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.75</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.45</v>
       </c>
       <c r="R57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.499999999999996</v>
       </c>
       <c r="S57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.199999999999996</v>
       </c>
       <c r="T57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47.05</v>
       </c>
       <c r="U57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.65</v>
       </c>
       <c r="V57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>254.27500000000001</v>
       </c>
     </row>
@@ -8713,39 +8713,39 @@
         <v>0.24900000000000003</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.45</v>
       </c>
       <c r="O58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.400000000000002</v>
       </c>
       <c r="P58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.35</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.349999999999998</v>
       </c>
       <c r="R58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.05</v>
       </c>
       <c r="S58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34.75</v>
       </c>
       <c r="T58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.8</v>
       </c>
       <c r="U58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.800000000000004</v>
       </c>
       <c r="V58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>250.95</v>
       </c>
     </row>
@@ -8793,39 +8793,39 @@
         <v>0.24775</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.35</v>
       </c>
       <c r="O59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.299999999999997</v>
       </c>
       <c r="P59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.199999999999996</v>
       </c>
       <c r="R59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.55</v>
       </c>
       <c r="S59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.6</v>
       </c>
       <c r="T59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.9</v>
       </c>
       <c r="U59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.55</v>
       </c>
       <c r="V59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>244.45</v>
       </c>
     </row>
@@ -8873,39 +8873,39 @@
         <v>0.24600000000000002</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.875</v>
       </c>
       <c r="O60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.45</v>
       </c>
       <c r="P60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.4</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.250000000000004</v>
       </c>
       <c r="R60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="S60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32.550000000000004</v>
       </c>
       <c r="T60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45.850000000000009</v>
       </c>
       <c r="U60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.2</v>
       </c>
       <c r="V60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>239.57499999999999</v>
       </c>
     </row>
@@ -8953,39 +8953,39 @@
         <v>0.24575</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.675000000000001</v>
       </c>
       <c r="O61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.15</v>
       </c>
       <c r="P61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.3</v>
       </c>
       <c r="R61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.45</v>
       </c>
       <c r="S61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31.65</v>
       </c>
       <c r="T61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.849999999999994</v>
       </c>
       <c r="U61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.15</v>
       </c>
       <c r="V61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>235.22499999999999</v>
       </c>
     </row>
@@ -9033,39 +9033,39 @@
         <v>0.24074999999999999</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.55</v>
       </c>
       <c r="O62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.7</v>
       </c>
       <c r="P62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.15</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.299999999999994</v>
       </c>
       <c r="R62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.35</v>
       </c>
       <c r="S62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.599999999999998</v>
       </c>
       <c r="T62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.45</v>
       </c>
       <c r="U62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.15</v>
       </c>
       <c r="V62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>228.24999999999997</v>
       </c>
     </row>
@@ -9113,39 +9113,39 @@
         <v>0.24</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.45</v>
       </c>
       <c r="O63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.200000000000003</v>
       </c>
       <c r="P63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.4</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.45</v>
       </c>
       <c r="R63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.45</v>
       </c>
       <c r="S63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.3</v>
       </c>
       <c r="T63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.55</v>
       </c>
       <c r="U63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="V63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>228.8</v>
       </c>
     </row>
@@ -9193,39 +9193,39 @@
         <v>0.24124999999999999</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.824999999999999</v>
       </c>
       <c r="O64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.700000000000003</v>
       </c>
       <c r="P64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="R64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.650000000000002</v>
       </c>
       <c r="S64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.75</v>
       </c>
       <c r="T64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43.4</v>
       </c>
       <c r="U64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.25</v>
       </c>
       <c r="V64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>231.57500000000002</v>
       </c>
     </row>
@@ -9273,39 +9273,39 @@
         <v>0.23700000000000002</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.524999999999999</v>
       </c>
       <c r="O65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.45</v>
       </c>
       <c r="P65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.15</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.35</v>
       </c>
       <c r="R65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.75</v>
       </c>
       <c r="S65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30.55</v>
       </c>
       <c r="T65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.75</v>
       </c>
       <c r="U65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.400000000000006</v>
       </c>
       <c r="V65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>229.92500000000001</v>
       </c>
     </row>
@@ -9353,39 +9353,39 @@
         <v>0.23524999999999999</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.424999999999999</v>
       </c>
       <c r="O66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.049999999999994</v>
       </c>
       <c r="P66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.449999999999996</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.700000000000003</v>
       </c>
       <c r="R66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.750000000000004</v>
       </c>
       <c r="S66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="T66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.849999999999994</v>
       </c>
       <c r="U66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.05</v>
       </c>
       <c r="V66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>231.27499999999998</v>
       </c>
     </row>
@@ -9439,39 +9439,39 @@
         <v>0.19399999999999998</v>
       </c>
       <c r="N67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.15</v>
       </c>
       <c r="O67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.349999999999994</v>
       </c>
       <c r="P67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.25</v>
       </c>
       <c r="R67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="S67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.049999999999997</v>
       </c>
       <c r="T67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.799999999999997</v>
       </c>
       <c r="U67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.799999999999997</v>
       </c>
       <c r="V67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>322.25000000000006</v>
       </c>
     </row>
@@ -9519,39 +9519,39 @@
         <v>0.19399999999999998</v>
       </c>
       <c r="N68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.599999999999994</v>
       </c>
       <c r="O68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.349999999999994</v>
       </c>
       <c r="P68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.25</v>
       </c>
       <c r="R68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.549999999999997</v>
       </c>
       <c r="S68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.049999999999997</v>
       </c>
       <c r="T68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.799999999999997</v>
       </c>
       <c r="U68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38.799999999999997</v>
       </c>
       <c r="V68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>315.70000000000005</v>
       </c>
     </row>
@@ -9599,39 +9599,39 @@
         <v>0.19425000000000001</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N129" si="11">F69*200</f>
+        <f t="shared" ref="N69:N129" si="12">F69*200</f>
         <v>41.324999999999996</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:O129" si="12">G69*200</f>
+        <f t="shared" ref="O69:O129" si="13">G69*200</f>
         <v>46</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P69:P129" si="13">H69*200</f>
+        <f t="shared" ref="P69:P129" si="14">H69*200</f>
         <v>39.950000000000003</v>
       </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:Q129" si="14">I69*200</f>
+        <f t="shared" ref="Q69:Q129" si="15">I69*200</f>
         <v>42.2</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R129" si="15">J69*200</f>
+        <f t="shared" ref="R69:R129" si="16">J69*200</f>
         <v>37.300000000000004</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S129" si="16">K69*200</f>
+        <f t="shared" ref="S69:S129" si="17">K69*200</f>
         <v>37.549999999999997</v>
       </c>
       <c r="T69">
-        <f t="shared" ref="T69:T129" si="17">L69*200</f>
+        <f t="shared" ref="T69:T129" si="18">L69*200</f>
         <v>41.55</v>
       </c>
       <c r="U69">
-        <f t="shared" ref="U69:U129" si="18">M69*200</f>
+        <f t="shared" ref="U69:U129" si="19">M69*200</f>
         <v>38.85</v>
       </c>
       <c r="V69">
-        <f t="shared" ref="V69:V129" si="19">SUM(N69:U69)</f>
+        <f t="shared" ref="V69:V129" si="20">SUM(N69:U69)</f>
         <v>324.72500000000002</v>
       </c>
     </row>
@@ -9679,39 +9679,39 @@
         <v>0.19225</v>
       </c>
       <c r="N70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.524999999999999</v>
       </c>
       <c r="O70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.949999999999996</v>
       </c>
       <c r="P70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.05</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.949999999999996</v>
       </c>
       <c r="R70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.049999999999997</v>
       </c>
       <c r="S70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.650000000000006</v>
       </c>
       <c r="T70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.25</v>
       </c>
       <c r="U70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.450000000000003</v>
       </c>
       <c r="V70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>354.87499999999994</v>
       </c>
     </row>
@@ -9759,39 +9759,39 @@
         <v>0.19325000000000001</v>
       </c>
       <c r="N71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.324999999999996</v>
       </c>
       <c r="O71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.349999999999994</v>
       </c>
       <c r="P71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.2</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.65</v>
       </c>
       <c r="R71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.9</v>
       </c>
       <c r="S71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="T71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.8</v>
       </c>
       <c r="U71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.65</v>
       </c>
       <c r="V71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>353.875</v>
       </c>
     </row>
@@ -9839,39 +9839,39 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="N72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.600000000000009</v>
       </c>
       <c r="O72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.15</v>
       </c>
       <c r="P72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.15</v>
       </c>
       <c r="R72">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.800000000000004</v>
       </c>
       <c r="S72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.5</v>
       </c>
       <c r="T72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.400000000000006</v>
       </c>
       <c r="U72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.75</v>
       </c>
       <c r="V72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>349.35</v>
       </c>
     </row>
@@ -9919,39 +9919,39 @@
         <v>0.19750000000000001</v>
       </c>
       <c r="N73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.325000000000003</v>
       </c>
       <c r="O73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.55</v>
       </c>
       <c r="P73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.8</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.85</v>
       </c>
       <c r="R73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.399999999999991</v>
       </c>
       <c r="S73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.85</v>
       </c>
       <c r="T73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42.399999999999991</v>
       </c>
       <c r="U73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.5</v>
       </c>
       <c r="V73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>355.67500000000001</v>
       </c>
     </row>
@@ -9999,39 +9999,39 @@
         <v>0.19824999999999998</v>
       </c>
       <c r="N74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.599999999999994</v>
       </c>
       <c r="O74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.449999999999996</v>
       </c>
       <c r="P74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.85</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.199999999999996</v>
       </c>
       <c r="R74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.75</v>
       </c>
       <c r="S74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.450000000000003</v>
       </c>
       <c r="T74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.800000000000004</v>
       </c>
       <c r="U74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.65</v>
       </c>
       <c r="V74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>339.74999999999994</v>
       </c>
     </row>
@@ -10079,39 +10079,39 @@
         <v>0.19949999999999998</v>
       </c>
       <c r="N75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.225000000000001</v>
       </c>
       <c r="O75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.800000000000004</v>
       </c>
       <c r="P75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.05</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.3</v>
       </c>
       <c r="R75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.25</v>
       </c>
       <c r="S75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.15</v>
       </c>
       <c r="T75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>42.349999999999994</v>
       </c>
       <c r="U75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.9</v>
       </c>
       <c r="V75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>342.02499999999998</v>
       </c>
     </row>
@@ -10159,39 +10159,39 @@
         <v>0.19950000000000004</v>
       </c>
       <c r="N76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.849999999999994</v>
       </c>
       <c r="O76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.949999999999996</v>
       </c>
       <c r="P76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.4</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="R76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.1</v>
       </c>
       <c r="S76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.049999999999997</v>
       </c>
       <c r="T76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.550000000000004</v>
       </c>
       <c r="U76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.900000000000006</v>
       </c>
       <c r="V76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>339.79999999999995</v>
       </c>
     </row>
@@ -10239,39 +10239,39 @@
         <v>0.2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.525000000000006</v>
       </c>
       <c r="O77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.65</v>
       </c>
       <c r="P77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.850000000000009</v>
       </c>
       <c r="R77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.549999999999997</v>
       </c>
       <c r="S77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.5</v>
       </c>
       <c r="T77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.05</v>
       </c>
       <c r="U77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="V77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>342.12500000000006</v>
       </c>
     </row>
@@ -10319,39 +10319,39 @@
         <v>0.19975000000000001</v>
       </c>
       <c r="N78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.725000000000001</v>
       </c>
       <c r="O78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.7</v>
       </c>
       <c r="P78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.1</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.6</v>
       </c>
       <c r="R78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.35</v>
       </c>
       <c r="S78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.700000000000003</v>
       </c>
       <c r="T78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.300000000000004</v>
       </c>
       <c r="U78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.950000000000003</v>
       </c>
       <c r="V78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>354.42500000000001</v>
       </c>
     </row>
@@ -10399,39 +10399,39 @@
         <v>0.2</v>
       </c>
       <c r="N79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.225000000000001</v>
       </c>
       <c r="O79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.2</v>
       </c>
       <c r="P79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.7</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.45</v>
       </c>
       <c r="R79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.549999999999997</v>
       </c>
       <c r="S79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.35</v>
       </c>
       <c r="T79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41.349999999999994</v>
       </c>
       <c r="U79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="V79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>361.82500000000005</v>
       </c>
     </row>
@@ -10479,39 +10479,39 @@
         <v>0.19399999999999998</v>
       </c>
       <c r="N80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51.924999999999997</v>
       </c>
       <c r="O80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.79999999999999</v>
       </c>
       <c r="P80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.2</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.85</v>
       </c>
       <c r="R80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.25</v>
       </c>
       <c r="T80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.65</v>
       </c>
       <c r="U80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.799999999999997</v>
       </c>
       <c r="V80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>360.57499999999999</v>
       </c>
     </row>
@@ -10559,39 +10559,39 @@
         <v>0.19675000000000001</v>
       </c>
       <c r="N81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.575000000000003</v>
       </c>
       <c r="O81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.79999999999999</v>
       </c>
       <c r="P81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.6</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.5</v>
       </c>
       <c r="R81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.799999999999997</v>
       </c>
       <c r="S81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.450000000000003</v>
       </c>
       <c r="T81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.5</v>
       </c>
       <c r="U81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.35</v>
       </c>
       <c r="V81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>360.57499999999999</v>
       </c>
     </row>
@@ -10639,39 +10639,39 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="N82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.325000000000003</v>
       </c>
       <c r="O82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55.1</v>
       </c>
       <c r="P82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.05</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="R82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.5</v>
       </c>
       <c r="S82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.35</v>
       </c>
       <c r="T82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.65</v>
       </c>
       <c r="U82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39.200000000000003</v>
       </c>
       <c r="V82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>365.17500000000001</v>
       </c>
     </row>
@@ -10719,39 +10719,39 @@
         <v>0.1905</v>
       </c>
       <c r="N83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.924999999999997</v>
       </c>
       <c r="O83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>54.400000000000006</v>
       </c>
       <c r="P83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.45</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.8</v>
       </c>
       <c r="R83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.700000000000003</v>
       </c>
       <c r="S83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.099999999999994</v>
       </c>
       <c r="T83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.449999999999996</v>
       </c>
       <c r="U83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.1</v>
       </c>
       <c r="V83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>358.92500000000001</v>
       </c>
     </row>
@@ -10799,39 +10799,39 @@
         <v>0.19325000000000001</v>
       </c>
       <c r="N84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54.7</v>
       </c>
       <c r="O84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55.65</v>
       </c>
       <c r="P84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.699999999999989</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50.7</v>
       </c>
       <c r="R84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.5</v>
       </c>
       <c r="S84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.65</v>
       </c>
       <c r="T84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.799999999999997</v>
       </c>
       <c r="U84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.65</v>
       </c>
       <c r="V84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>367.34999999999997</v>
       </c>
     </row>
@@ -10879,39 +10879,39 @@
         <v>0.19399999999999998</v>
       </c>
       <c r="N85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57.849999999999987</v>
       </c>
       <c r="O85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57.9</v>
       </c>
       <c r="P85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>53.199999999999989</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.9</v>
       </c>
       <c r="R85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.75</v>
       </c>
       <c r="S85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.25</v>
       </c>
       <c r="T85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40.35</v>
       </c>
       <c r="U85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.799999999999997</v>
       </c>
       <c r="V85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>377.00000000000006</v>
       </c>
     </row>
@@ -10959,39 +10959,39 @@
         <v>0.18875</v>
       </c>
       <c r="N86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53.924999999999997</v>
       </c>
       <c r="O86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>56.55</v>
       </c>
       <c r="P86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.9</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.150000000000006</v>
       </c>
       <c r="R86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.6</v>
       </c>
       <c r="S86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.450000000000003</v>
       </c>
       <c r="T86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.700000000000003</v>
       </c>
       <c r="U86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.75</v>
       </c>
       <c r="V86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>367.02499999999998</v>
       </c>
     </row>
@@ -11039,39 +11039,39 @@
         <v>0.18975</v>
       </c>
       <c r="N87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56.45</v>
       </c>
       <c r="O87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>56.75</v>
       </c>
       <c r="P87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>53.05</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>52.5</v>
       </c>
       <c r="R87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.950000000000003</v>
       </c>
       <c r="S87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.950000000000003</v>
       </c>
       <c r="T87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39.900000000000006</v>
       </c>
       <c r="U87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.950000000000003</v>
       </c>
       <c r="V87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>373.49999999999994</v>
       </c>
     </row>
@@ -11122,39 +11122,39 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="N88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.25</v>
       </c>
       <c r="O88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.6</v>
       </c>
       <c r="P88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>41.650000000000006</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.15</v>
       </c>
       <c r="R88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.35</v>
       </c>
       <c r="S88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.9</v>
       </c>
       <c r="T88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.400000000000006</v>
       </c>
       <c r="U88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.5</v>
       </c>
       <c r="V88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>327.8</v>
       </c>
     </row>
@@ -11202,39 +11202,39 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="N89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.6</v>
       </c>
       <c r="O89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.6</v>
       </c>
       <c r="P89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>41.650000000000006</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.15</v>
       </c>
       <c r="R89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.35</v>
       </c>
       <c r="S89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.9</v>
       </c>
       <c r="T89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.400000000000006</v>
       </c>
       <c r="U89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.5</v>
       </c>
       <c r="V89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>324.14999999999998</v>
       </c>
     </row>
@@ -11282,39 +11282,39 @@
         <v>0.17725000000000002</v>
       </c>
       <c r="N90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.05</v>
       </c>
       <c r="O90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.599999999999994</v>
       </c>
       <c r="P90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>42.8</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.2</v>
       </c>
       <c r="R90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.650000000000006</v>
       </c>
       <c r="S90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.199999999999996</v>
       </c>
       <c r="T90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.5</v>
       </c>
       <c r="U90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.450000000000003</v>
       </c>
       <c r="V90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>332.45</v>
       </c>
     </row>
@@ -11362,39 +11362,39 @@
         <v>0.17749999999999999</v>
       </c>
       <c r="N91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.55</v>
       </c>
       <c r="O91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52.1</v>
       </c>
       <c r="P91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.7</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.55</v>
       </c>
       <c r="R91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.55</v>
       </c>
       <c r="S91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.85</v>
       </c>
       <c r="T91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.050000000000004</v>
       </c>
       <c r="U91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.5</v>
       </c>
       <c r="V91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>364.85000000000008</v>
       </c>
     </row>
@@ -11442,39 +11442,39 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="N92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.375</v>
       </c>
       <c r="O92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.5</v>
       </c>
       <c r="P92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.949999999999996</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.75</v>
       </c>
       <c r="R92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.85</v>
       </c>
       <c r="S92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.699999999999996</v>
       </c>
       <c r="T92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.550000000000004</v>
       </c>
       <c r="U92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.9</v>
       </c>
       <c r="V92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>365.57499999999999</v>
       </c>
     </row>
@@ -11522,39 +11522,39 @@
         <v>0.17924999999999996</v>
       </c>
       <c r="N93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.375</v>
       </c>
       <c r="O93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49.600000000000009</v>
       </c>
       <c r="P93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.349999999999994</v>
       </c>
       <c r="R93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="S93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.65</v>
       </c>
       <c r="T93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.1</v>
       </c>
       <c r="U93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.849999999999994</v>
       </c>
       <c r="V93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>357.02499999999998</v>
       </c>
     </row>
@@ -11602,39 +11602,39 @@
         <v>0.17850000000000002</v>
       </c>
       <c r="N94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.650000000000006</v>
       </c>
       <c r="O94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49.65</v>
       </c>
       <c r="P94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.35</v>
       </c>
       <c r="R94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.8</v>
       </c>
       <c r="S94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>43</v>
       </c>
       <c r="T94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.550000000000004</v>
       </c>
       <c r="U94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.700000000000003</v>
       </c>
       <c r="V94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>360.8</v>
       </c>
     </row>
@@ -11682,39 +11682,39 @@
         <v>0.17799999999999996</v>
       </c>
       <c r="N95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.375</v>
       </c>
       <c r="O95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.7</v>
       </c>
       <c r="P95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.649999999999991</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.25</v>
       </c>
       <c r="R95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.099999999999994</v>
       </c>
       <c r="S95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.550000000000004</v>
       </c>
       <c r="T95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.4</v>
       </c>
       <c r="U95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.599999999999994</v>
       </c>
       <c r="V95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>342.625</v>
       </c>
     </row>
@@ -11762,39 +11762,39 @@
         <v>0.18</v>
       </c>
       <c r="N96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.075000000000003</v>
       </c>
       <c r="O96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.349999999999994</v>
       </c>
       <c r="P96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.900000000000006</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.95</v>
       </c>
       <c r="R96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>48.350000000000009</v>
       </c>
       <c r="S96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.849999999999994</v>
       </c>
       <c r="T96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37.450000000000003</v>
       </c>
       <c r="U96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="V96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>337.92500000000001</v>
       </c>
     </row>
@@ -11842,39 +11842,39 @@
         <v>0.17600000000000002</v>
       </c>
       <c r="N97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41.099999999999994</v>
       </c>
       <c r="O97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.099999999999994</v>
       </c>
       <c r="P97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.650000000000006</v>
       </c>
       <c r="R97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46.5</v>
       </c>
       <c r="S97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>42.2</v>
       </c>
       <c r="T97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.75</v>
       </c>
       <c r="U97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.200000000000003</v>
       </c>
       <c r="V97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>334.5</v>
       </c>
     </row>
@@ -11922,39 +11922,39 @@
         <v>0.17450000000000002</v>
       </c>
       <c r="N98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.050000000000004</v>
       </c>
       <c r="O98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.35</v>
       </c>
       <c r="P98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.15</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.1</v>
       </c>
       <c r="R98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46.55</v>
       </c>
       <c r="S98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.699999999999996</v>
       </c>
       <c r="T98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.5</v>
       </c>
       <c r="U98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.900000000000006</v>
       </c>
       <c r="V98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>337.29999999999995</v>
       </c>
     </row>
@@ -12002,39 +12002,39 @@
         <v>0.17374999999999999</v>
       </c>
       <c r="N99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.824999999999996</v>
       </c>
       <c r="O99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.65</v>
       </c>
       <c r="P99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.5</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.650000000000006</v>
       </c>
       <c r="R99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.95</v>
       </c>
       <c r="S99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.199999999999996</v>
       </c>
       <c r="T99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.450000000000003</v>
       </c>
       <c r="U99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.75</v>
       </c>
       <c r="V99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>341.97499999999997</v>
       </c>
     </row>
@@ -12082,39 +12082,39 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="N100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.524999999999999</v>
       </c>
       <c r="O100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47.6</v>
       </c>
       <c r="P100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.399999999999991</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.5</v>
       </c>
       <c r="R100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.2</v>
       </c>
       <c r="S100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.5</v>
       </c>
       <c r="T100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36.349999999999994</v>
       </c>
       <c r="U100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.799999999999997</v>
       </c>
       <c r="V100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>345.87499999999994</v>
       </c>
     </row>
@@ -12162,39 +12162,39 @@
         <v>0.17074999999999999</v>
       </c>
       <c r="N101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.899999999999991</v>
       </c>
       <c r="O101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.7</v>
       </c>
       <c r="P101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.65</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.099999999999994</v>
       </c>
       <c r="R101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.45</v>
       </c>
       <c r="S101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.099999999999994</v>
       </c>
       <c r="T101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.6</v>
       </c>
       <c r="U101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34.15</v>
       </c>
       <c r="V101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>345.65</v>
       </c>
     </row>
@@ -12242,39 +12242,39 @@
         <v>0.16799999999999998</v>
       </c>
       <c r="N102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47.15</v>
       </c>
       <c r="O102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.849999999999994</v>
       </c>
       <c r="P102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.1</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.1</v>
       </c>
       <c r="R102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.300000000000004</v>
       </c>
       <c r="S102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.849999999999994</v>
       </c>
       <c r="T102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.75</v>
       </c>
       <c r="U102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33.599999999999994</v>
       </c>
       <c r="V102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>344.70000000000005</v>
       </c>
     </row>
@@ -12322,39 +12322,39 @@
         <v>0.16725000000000001</v>
       </c>
       <c r="N103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.150000000000006</v>
       </c>
       <c r="O103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.3</v>
       </c>
       <c r="P103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.5</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.3</v>
       </c>
       <c r="R103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.3</v>
       </c>
       <c r="S103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.9</v>
       </c>
       <c r="T103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35.6</v>
       </c>
       <c r="U103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33.450000000000003</v>
       </c>
       <c r="V103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>348.5</v>
       </c>
     </row>
@@ -12402,39 +12402,39 @@
         <v>0.16125</v>
       </c>
       <c r="N104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49.424999999999997</v>
       </c>
       <c r="O104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49.099999999999994</v>
       </c>
       <c r="P104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.550000000000004</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.8</v>
       </c>
       <c r="R104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.750000000000007</v>
       </c>
       <c r="S104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.550000000000004</v>
       </c>
       <c r="T104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.35</v>
       </c>
       <c r="U104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.25</v>
       </c>
       <c r="V104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>341.77500000000003</v>
       </c>
     </row>
@@ -12482,39 +12482,39 @@
         <v>0.16275000000000003</v>
       </c>
       <c r="N105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51.625</v>
       </c>
       <c r="O105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.249999999999993</v>
       </c>
       <c r="P105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.15</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.4</v>
       </c>
       <c r="R105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.45</v>
       </c>
       <c r="S105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.1</v>
       </c>
       <c r="T105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.450000000000003</v>
       </c>
       <c r="U105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.550000000000004</v>
       </c>
       <c r="V105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>350.97500000000002</v>
       </c>
     </row>
@@ -12562,39 +12562,39 @@
         <v>0.1605</v>
       </c>
       <c r="N106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57.92499999999999</v>
       </c>
       <c r="O106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.7</v>
       </c>
       <c r="P106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.7</v>
       </c>
       <c r="R106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46.65</v>
       </c>
       <c r="S106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.100000000000009</v>
       </c>
       <c r="T106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.5</v>
       </c>
       <c r="U106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.1</v>
       </c>
       <c r="V106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>363.67500000000001</v>
       </c>
     </row>
@@ -12642,39 +12642,39 @@
         <v>0.158</v>
       </c>
       <c r="N107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>52.2</v>
       </c>
       <c r="O107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.899999999999991</v>
       </c>
       <c r="P107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.2</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.75</v>
       </c>
       <c r="R107">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46.099999999999994</v>
       </c>
       <c r="S107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.15</v>
       </c>
       <c r="T107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.200000000000003</v>
       </c>
       <c r="U107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.6</v>
       </c>
       <c r="V107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>352.1</v>
       </c>
     </row>
@@ -12722,39 +12722,39 @@
         <v>0.1585</v>
       </c>
       <c r="N108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>53.625</v>
       </c>
       <c r="O108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
       <c r="P108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>51.05</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>48.9</v>
       </c>
       <c r="R108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>46.8</v>
       </c>
       <c r="S108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.65</v>
       </c>
       <c r="T108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34.200000000000003</v>
       </c>
       <c r="U108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.7</v>
       </c>
       <c r="V108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>357.42499999999995</v>
       </c>
     </row>
@@ -12805,39 +12805,39 @@
         <v>0.193</v>
       </c>
       <c r="N109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.35</v>
       </c>
       <c r="O109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="P109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>41.85</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.200000000000003</v>
       </c>
       <c r="R109">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="S109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.5</v>
       </c>
       <c r="T109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.549999999999997</v>
       </c>
       <c r="U109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.6</v>
       </c>
       <c r="V109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>319.05</v>
       </c>
     </row>
@@ -12885,39 +12885,39 @@
         <v>0.193</v>
       </c>
       <c r="N110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34.43181818181818</v>
       </c>
       <c r="O110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="P110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>41.85</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.200000000000003</v>
       </c>
       <c r="R110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="S110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.5</v>
       </c>
       <c r="T110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.549999999999997</v>
       </c>
       <c r="U110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.6</v>
       </c>
       <c r="V110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>313.13181818181823</v>
       </c>
     </row>
@@ -12965,39 +12965,39 @@
         <v>0.193</v>
       </c>
       <c r="N111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.25</v>
       </c>
       <c r="O111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.75</v>
       </c>
       <c r="P111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>43.75</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.65</v>
       </c>
       <c r="R111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.900000000000006</v>
       </c>
       <c r="S111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.150000000000006</v>
       </c>
       <c r="T111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.299999999999997</v>
       </c>
       <c r="U111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.6</v>
       </c>
       <c r="V111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>322.35000000000002</v>
       </c>
     </row>
@@ -13045,39 +13045,39 @@
         <v>0.18875</v>
       </c>
       <c r="N112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.699999999999996</v>
       </c>
       <c r="O112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.949999999999996</v>
       </c>
       <c r="P112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.45</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.849999999999994</v>
       </c>
       <c r="R112">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.55</v>
       </c>
       <c r="S112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.699999999999996</v>
       </c>
       <c r="T112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.449999999999996</v>
       </c>
       <c r="U112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.75</v>
       </c>
       <c r="V112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>349.4</v>
       </c>
     </row>
@@ -13125,39 +13125,39 @@
         <v>0.18900000000000003</v>
       </c>
       <c r="N113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.524999999999999</v>
       </c>
       <c r="O113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.849999999999994</v>
       </c>
       <c r="P113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.349999999999994</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.8</v>
       </c>
       <c r="R113">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.199999999999996</v>
       </c>
       <c r="S113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.35</v>
       </c>
       <c r="T113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.700000000000003</v>
       </c>
       <c r="U113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.800000000000004</v>
       </c>
       <c r="V113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>352.57499999999999</v>
       </c>
     </row>
@@ -13205,39 +13205,39 @@
         <v>0.18925</v>
       </c>
       <c r="N114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44.074999999999996</v>
       </c>
       <c r="O114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.55</v>
       </c>
       <c r="P114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.349999999999994</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.95</v>
       </c>
       <c r="R114">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.75</v>
       </c>
       <c r="S114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.45</v>
       </c>
       <c r="T114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.950000000000003</v>
       </c>
       <c r="U114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.85</v>
       </c>
       <c r="V114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>346.92500000000001</v>
       </c>
     </row>
@@ -13285,39 +13285,39 @@
         <v>0.19274999999999998</v>
       </c>
       <c r="N115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.249999999999993</v>
       </c>
       <c r="O115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.95000000000001</v>
       </c>
       <c r="P115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>50.100000000000009</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.9</v>
       </c>
       <c r="R115">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44.35</v>
       </c>
       <c r="S115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.45</v>
       </c>
       <c r="T115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.800000000000004</v>
       </c>
       <c r="U115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.549999999999997</v>
       </c>
       <c r="V115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>350.35</v>
       </c>
     </row>
@@ -13365,39 +13365,39 @@
         <v>0.19049999999999997</v>
       </c>
       <c r="N116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.725000000000001</v>
       </c>
       <c r="O116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.349999999999994</v>
       </c>
       <c r="P116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.25</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>43.05</v>
       </c>
       <c r="R116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.3</v>
       </c>
       <c r="S116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="T116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.550000000000004</v>
       </c>
       <c r="U116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.099999999999994</v>
       </c>
       <c r="V116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>331.32500000000005</v>
       </c>
     </row>
@@ -13445,39 +13445,39 @@
         <v>0.1905</v>
       </c>
       <c r="N117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36.300000000000004</v>
       </c>
       <c r="O117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.650000000000006</v>
       </c>
       <c r="P117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.800000000000004</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>42.95</v>
       </c>
       <c r="R117">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>43.3</v>
       </c>
       <c r="S117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>41.05</v>
       </c>
       <c r="T117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33.550000000000004</v>
       </c>
       <c r="U117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38.1</v>
       </c>
       <c r="V117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>326.7000000000001</v>
       </c>
     </row>
@@ -13525,39 +13525,39 @@
         <v>0.18925</v>
       </c>
       <c r="N118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38.575000000000003</v>
       </c>
       <c r="O118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.35</v>
       </c>
       <c r="P118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.3</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.950000000000003</v>
       </c>
       <c r="R118">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.400000000000006</v>
       </c>
       <c r="S118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.200000000000003</v>
       </c>
       <c r="T118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="U118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.85</v>
       </c>
       <c r="V118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>319.62500000000006</v>
       </c>
     </row>
@@ -13605,39 +13605,39 @@
         <v>0.1895</v>
       </c>
       <c r="N119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="O119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.05</v>
       </c>
       <c r="P119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.599999999999994</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.949999999999996</v>
       </c>
       <c r="R119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>41.65</v>
       </c>
       <c r="S119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>40.400000000000006</v>
       </c>
       <c r="T119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32.4</v>
       </c>
       <c r="U119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.9</v>
       </c>
       <c r="V119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>318.95</v>
       </c>
     </row>
@@ -13685,39 +13685,39 @@
         <v>0.18925</v>
       </c>
       <c r="N120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40.575000000000003</v>
       </c>
       <c r="O120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.099999999999994</v>
       </c>
       <c r="P120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.7</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.099999999999994</v>
       </c>
       <c r="R120">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.75</v>
       </c>
       <c r="S120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.9</v>
       </c>
       <c r="T120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32.799999999999997</v>
       </c>
       <c r="U120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.85</v>
       </c>
       <c r="V120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>321.77500000000003</v>
       </c>
     </row>
@@ -13765,39 +13765,39 @@
         <v>0.18724999999999997</v>
       </c>
       <c r="N121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.2</v>
       </c>
       <c r="O121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.55</v>
       </c>
       <c r="P121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.5</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.85</v>
       </c>
       <c r="R121">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40.1</v>
       </c>
       <c r="S121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>39.65</v>
       </c>
       <c r="T121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32.6</v>
       </c>
       <c r="U121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.449999999999996</v>
       </c>
       <c r="V121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>322.89999999999998</v>
       </c>
     </row>
@@ -13845,39 +13845,39 @@
         <v>0.18625</v>
       </c>
       <c r="N122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>43.625</v>
       </c>
       <c r="O122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.050000000000004</v>
       </c>
       <c r="P122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45.75</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.950000000000003</v>
       </c>
       <c r="R122">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.200000000000003</v>
       </c>
       <c r="S122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.299999999999997</v>
       </c>
       <c r="T122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.7</v>
       </c>
       <c r="U122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37.25</v>
       </c>
       <c r="V122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>321.82499999999999</v>
       </c>
     </row>
@@ -13925,39 +13925,39 @@
         <v>0.1845</v>
       </c>
       <c r="N123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.725000000000009</v>
       </c>
       <c r="O123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.05</v>
       </c>
       <c r="P123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.2</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.049999999999997</v>
       </c>
       <c r="R123">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.75</v>
       </c>
       <c r="S123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>38.15</v>
       </c>
       <c r="T123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.75</v>
       </c>
       <c r="U123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36.9</v>
       </c>
       <c r="V123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>320.57500000000005</v>
       </c>
     </row>
@@ -14005,39 +14005,39 @@
         <v>0.184</v>
       </c>
       <c r="N124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.125</v>
       </c>
       <c r="O124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47.899999999999991</v>
       </c>
       <c r="P124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.65</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.6</v>
       </c>
       <c r="R124">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.9</v>
       </c>
       <c r="S124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.950000000000003</v>
       </c>
       <c r="T124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31.45</v>
       </c>
       <c r="U124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36.799999999999997</v>
       </c>
       <c r="V124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>324.375</v>
       </c>
     </row>
@@ -14085,39 +14085,39 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="N125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45.449999999999996</v>
       </c>
       <c r="O125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.85</v>
       </c>
       <c r="P125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46.05</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38.65</v>
       </c>
       <c r="R125">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.6</v>
       </c>
       <c r="S125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.049999999999997</v>
       </c>
       <c r="T125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.349999999999998</v>
       </c>
       <c r="U125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.9</v>
       </c>
       <c r="V125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>317.89999999999998</v>
       </c>
     </row>
@@ -14165,39 +14165,39 @@
         <v>0.17925000000000002</v>
       </c>
       <c r="N126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.175000000000004</v>
       </c>
       <c r="O126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.150000000000006</v>
       </c>
       <c r="P126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47.4</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>39.6</v>
       </c>
       <c r="R126">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.800000000000004</v>
       </c>
       <c r="S126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.549999999999997</v>
       </c>
       <c r="T126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.349999999999998</v>
       </c>
       <c r="U126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.85</v>
       </c>
       <c r="V126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>326.87500000000006</v>
       </c>
     </row>
@@ -14245,39 +14245,39 @@
         <v>0.17925000000000002</v>
       </c>
       <c r="N127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54.075000000000003</v>
       </c>
       <c r="O127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>53.149999999999984</v>
       </c>
       <c r="P127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.75</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.349999999999994</v>
       </c>
       <c r="R127">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.85</v>
       </c>
       <c r="S127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.900000000000006</v>
       </c>
       <c r="T127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.3</v>
       </c>
       <c r="U127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.85</v>
       </c>
       <c r="V127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>339.22500000000002</v>
       </c>
     </row>
@@ -14325,39 +14325,39 @@
         <v>0.17624999999999999</v>
       </c>
       <c r="N128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.824999999999996</v>
       </c>
       <c r="O128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.300000000000004</v>
       </c>
       <c r="P128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48.1</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40.5</v>
       </c>
       <c r="R128">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.25</v>
       </c>
       <c r="S128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.25</v>
       </c>
       <c r="T128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.049999999999997</v>
       </c>
       <c r="U128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.25</v>
       </c>
       <c r="V128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>329.52500000000003</v>
       </c>
     </row>
@@ -14405,39 +14405,39 @@
         <v>0.17574999999999999</v>
       </c>
       <c r="N129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>48.975000000000001</v>
       </c>
       <c r="O129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>52.300000000000004</v>
       </c>
       <c r="P129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>49.15</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.349999999999994</v>
       </c>
       <c r="R129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39.400000000000006</v>
       </c>
       <c r="S129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>37.200000000000003</v>
       </c>
       <c r="T129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.3</v>
       </c>
       <c r="U129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.15</v>
       </c>
       <c r="V129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>333.82499999999999</v>
       </c>
     </row>
@@ -14555,8 +14555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14575,35 +14575,35 @@
       </c>
       <c r="C1" t="str">
         <f>SoilMoistureMM!F3</f>
-        <v>Soil.SoilWater.SW0:7(1)</v>
+        <v>Soil.SoilWater.SW(1)</v>
       </c>
       <c r="D1" t="str">
         <f>SoilMoistureMM!G3</f>
-        <v>Soil.SoilWater.SW0:7(2)</v>
+        <v>Soil.SoilWater.SW(2)</v>
       </c>
       <c r="E1" t="str">
         <f>SoilMoistureMM!H3</f>
-        <v>Soil.SoilWater.SW0:7(3)</v>
+        <v>Soil.SoilWater.SW(3)</v>
       </c>
       <c r="F1" t="str">
         <f>SoilMoistureMM!I3</f>
-        <v>Soil.SoilWater.SW0:7(4)</v>
+        <v>Soil.SoilWater.SW(4)</v>
       </c>
       <c r="G1" t="str">
         <f>SoilMoistureMM!J3</f>
-        <v>Soil.SoilWater.SW0:7(5)</v>
+        <v>Soil.SoilWater.SW(5)</v>
       </c>
       <c r="H1" t="str">
         <f>SoilMoistureMM!K3</f>
-        <v>Soil.SoilWater.SW0:7(6)</v>
+        <v>Soil.SoilWater.SW(6)</v>
       </c>
       <c r="I1" t="str">
         <f>SoilMoistureMM!L3</f>
-        <v>Soil.SoilWater.SW0:7(7)</v>
+        <v>Soil.SoilWater.SW(7)</v>
       </c>
       <c r="J1" t="str">
         <f>SoilMoistureMM!M3</f>
-        <v>Soil.SoilWater.SW0:7(8)</v>
+        <v>Soil.SoilWater.SW(8)</v>
       </c>
       <c r="K1" t="str">
         <f>SoilMoistureMM!N3</f>
